--- a/biology/Médecine/Dorota_Lorska/Dorota_Lorska.xlsx
+++ b/biology/Médecine/Dorota_Lorska/Dorota_Lorska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorota Lorska, née le 3 novembre 1912 en Pologne et morte le 22 novembre 1965, est une artiste et une survivante du camp de concentration d’Auschwitz en Pologne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née en 1912 à Kielce. Elle étudie la médecine à Prague. En 1936, elle part pour l'Espagne et rejoint les républicains comme médecin dans un hôpital à Albacete durant un an et demi. Elle obtient la citoyenneté tchécoslovaque par mariage en 1937 avec Vilem Klein, mort durant la Seconde Guerre mondiale[1].
-Durant la Seconde Guerre mondiale, elle arrive dans la convoi le 2 août 1943, elle est choisie par le docteur Eduard Wirths, elle est détenue au camp de concentration d'Auschwitz avec le numéro 52325. Elle travaille dans l'hôpital du camp. Elle devient membre de la résistance du block 10, elle transmettait des messages à la centrale de la résistance[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née en 1912 à Kielce. Elle étudie la médecine à Prague. En 1936, elle part pour l'Espagne et rejoint les républicains comme médecin dans un hôpital à Albacete durant un an et demi. Elle obtient la citoyenneté tchécoslovaque par mariage en 1937 avec Vilem Klein, mort durant la Seconde Guerre mondiale.
+Durant la Seconde Guerre mondiale, elle arrive dans la convoi le 2 août 1943, elle est choisie par le docteur Eduard Wirths, elle est détenue au camp de concentration d'Auschwitz avec le numéro 52325. Elle travaille dans l'hôpital du camp. Elle devient membre de la résistance du block 10, elle transmettait des messages à la centrale de la résistance,.
 Après la guerre, elle s'installe en Palestine mandataire, qui devient Israël. Elle revient en Pologne dans les années 1960.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bloque 10 à Auschwitz, New York, 2007</t>
         </is>
